--- a/管理・設計ドキュメント/02_基本設計/10x.機能設計/101.機能一覧.xlsx
+++ b/管理・設計ドキュメント/02_基本設計/10x.機能設計/101.機能一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\03.夢の宅配便\02_基本設計\10x.機能設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\02_基本設計\10x.機能設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EBFC67-C0C8-4F37-A4EE-B8CBF94F8C5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3BB5B1-B483-452D-AE08-5E7163FE6ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="675" windowWidth="24375" windowHeight="14925" tabRatio="758" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="630" windowWidth="24375" windowHeight="14925" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="60" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="機能一覧（WEBサーバー）20191017" sheetId="61" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'機能一覧（WEBサーバー）'!$A$4:$P$85</definedName>
-    <definedName name="TABLE" localSheetId="1">'機能一覧（WEBサーバー）'!$B$64:$B$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'機能一覧（WEBサーバー）'!$A$4:$P$86</definedName>
+    <definedName name="TABLE" localSheetId="1">'機能一覧（WEBサーバー）'!$B$65:$B$65</definedName>
     <definedName name="TABLE" localSheetId="2">'機能一覧（WEBサーバー）20191017'!$B$86:$B$86</definedName>
-    <definedName name="TABLE_2" localSheetId="1">'機能一覧（WEBサーバー）'!$B$64:$B$64</definedName>
+    <definedName name="TABLE_2" localSheetId="1">'機能一覧（WEBサーバー）'!$B$65:$B$65</definedName>
     <definedName name="TABLE_2" localSheetId="2">'機能一覧（WEBサーバー）20191017'!$B$86:$B$86</definedName>
-    <definedName name="TABLE_3" localSheetId="1">'機能一覧（WEBサーバー）'!$B$64:$B$64</definedName>
+    <definedName name="TABLE_3" localSheetId="1">'機能一覧（WEBサーバー）'!$B$65:$B$65</definedName>
     <definedName name="TABLE_3" localSheetId="2">'機能一覧（WEBサーバー）20191017'!$B$86:$B$86</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="170">
   <si>
     <t>改訂日</t>
   </si>
@@ -903,47 +903,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>業務フロー（先行分）の作成完了に伴い、フィードバックを行う。
-機能の内容、名称等を更新。</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センコウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>トモナ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>メイショウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>二段階認証によりセキュリティーを確保する。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1833,17 +1792,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フェーズ１
-作業状況</t>
-    <rPh sb="6" eb="8">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完</t>
     <rPh sb="0" eb="1">
       <t>カン</t>
@@ -2095,6 +2043,68 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェーズ２までの
+作業状況</t>
+    <rPh sb="9" eb="11">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品在庫管理</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品の在庫の追加、削減ができる。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未着
+※テーブルのみ先行実装
+※登録は商品の登録時に行われる。参照、検索も商品の検索機能側に実装済み。</t>
+    <rPh sb="0" eb="2">
+      <t>ミチャク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品在庫管理を追加</t>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2106,7 +2116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2175,6 +2185,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2377,7 +2401,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2498,6 +2522,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2519,8 +2546,17 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2613,13 +2649,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>266699</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2635,8 +2671,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13401675" y="9286874"/>
-          <a:ext cx="1733550" cy="2314576"/>
+          <a:off x="13401675" y="10610850"/>
+          <a:ext cx="1733550" cy="2190750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2727,15 +2763,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>204787</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2747,13 +2783,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
           <a:stCxn id="3" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="13106400" y="10086975"/>
-          <a:ext cx="295275" cy="357187"/>
+          <a:off x="13106401" y="11287127"/>
+          <a:ext cx="295274" cy="419098"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3156,7 +3193,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -3213,13 +3250,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="28">
         <f t="shared" ref="A5:A51" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="29">
-        <v>43775</v>
+        <v>43929</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>89</v>
@@ -3228,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>90</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -3704,12 +3741,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1122"/>
-  <dimension ref="A1:P85"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3767,24 +3804,24 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="44" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="49" t="s">
-        <v>146</v>
+      <c r="O3" s="50" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
@@ -3798,7 +3835,7 @@
       <c r="D4" s="16">
         <v>3</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="17" t="s">
         <v>4</v>
       </c>
@@ -3823,25 +3860,25 @@
       <c r="M4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="44"/>
-      <c r="O4" s="50"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="51"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
-        <f t="shared" ref="A5:A56" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A57" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -3852,10 +3889,10 @@
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
       <c r="N5" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O5" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -3869,7 +3906,7 @@
         <v>58</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
@@ -3880,10 +3917,10 @@
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O6" s="42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -3897,7 +3934,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
@@ -3908,10 +3945,10 @@
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O7" s="42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.15">
@@ -3921,13 +3958,13 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
@@ -3939,7 +3976,7 @@
       <c r="M8" s="21"/>
       <c r="N8" s="18"/>
       <c r="O8" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.15">
@@ -3950,10 +3987,10 @@
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
@@ -3965,7 +4002,7 @@
       <c r="M9" s="21"/>
       <c r="N9" s="18"/>
       <c r="O9" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -3976,10 +4013,10 @@
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
@@ -3991,7 +4028,7 @@
       <c r="M10" s="21"/>
       <c r="N10" s="18"/>
       <c r="O10" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.15">
@@ -4002,10 +4039,10 @@
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>104</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
@@ -4017,7 +4054,7 @@
       <c r="M11" s="21"/>
       <c r="N11" s="18"/>
       <c r="O11" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -4027,13 +4064,13 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -4045,7 +4082,7 @@
       <c r="M12" s="21"/>
       <c r="N12" s="18"/>
       <c r="O12" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -4059,7 +4096,7 @@
         <v>17</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -4071,7 +4108,7 @@
       <c r="M13" s="21"/>
       <c r="N13" s="18"/>
       <c r="O13" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -4081,13 +4118,13 @@
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -4099,7 +4136,7 @@
       <c r="M14" s="21"/>
       <c r="N14" s="18"/>
       <c r="O14" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -4113,7 +4150,7 @@
         <v>48</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
@@ -4125,7 +4162,7 @@
       <c r="M15" s="21"/>
       <c r="N15" s="18"/>
       <c r="O15" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -4136,10 +4173,10 @@
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -4151,7 +4188,7 @@
       <c r="M16" s="21"/>
       <c r="N16" s="18"/>
       <c r="O16" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -4162,10 +4199,10 @@
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
@@ -4177,7 +4214,7 @@
       <c r="M17" s="21"/>
       <c r="N17" s="18"/>
       <c r="O17" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -4188,10 +4225,10 @@
       <c r="B18" s="19"/>
       <c r="C18" s="39"/>
       <c r="D18" s="40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -4203,7 +4240,7 @@
       <c r="M18" s="21"/>
       <c r="N18" s="40"/>
       <c r="O18" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -4219,7 +4256,7 @@
         <v>25</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
@@ -4231,7 +4268,7 @@
       <c r="M19" s="21"/>
       <c r="N19" s="40"/>
       <c r="O19" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -4240,7 +4277,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>23</v>
@@ -4249,7 +4286,7 @@
         <v>23</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -4261,7 +4298,7 @@
       <c r="M20" s="22"/>
       <c r="N20" s="18"/>
       <c r="O20" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.15">
@@ -4272,10 +4309,10 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -4287,7 +4324,7 @@
       <c r="M21" s="22"/>
       <c r="N21" s="18"/>
       <c r="O21" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -4298,10 +4335,10 @@
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -4313,7 +4350,7 @@
       <c r="M22" s="22"/>
       <c r="N22" s="18"/>
       <c r="O22" s="38" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -4329,7 +4366,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -4343,7 +4380,7 @@
         <v>75</v>
       </c>
       <c r="O23" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -4357,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -4371,7 +4408,7 @@
         <v>65</v>
       </c>
       <c r="O24" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -4385,7 +4422,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
@@ -4396,10 +4433,10 @@
       <c r="L25" s="22"/>
       <c r="M25" s="22"/>
       <c r="N25" s="40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O25" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -4413,7 +4450,7 @@
         <v>31</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
@@ -4424,10 +4461,10 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O26" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -4441,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
@@ -4452,10 +4489,10 @@
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O27" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -4471,7 +4508,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
@@ -4483,7 +4520,7 @@
       <c r="M28" s="22"/>
       <c r="N28" s="18"/>
       <c r="O28" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -4497,7 +4534,7 @@
         <v>32</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
@@ -4509,7 +4546,7 @@
       <c r="M29" s="22"/>
       <c r="N29" s="18"/>
       <c r="O29" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -4523,7 +4560,7 @@
         <v>6</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
@@ -4535,7 +4572,7 @@
       <c r="M30" s="22"/>
       <c r="N30" s="18"/>
       <c r="O30" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -4549,7 +4586,7 @@
         <v>31</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
@@ -4561,7 +4598,7 @@
       <c r="M31" s="22"/>
       <c r="N31" s="18"/>
       <c r="O31" s="37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -4575,7 +4612,7 @@
         <v>8</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
@@ -4586,64 +4623,66 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O32" s="37" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.15">
       <c r="A33" s="18">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B33" s="18"/>
-      <c r="C33" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="40" t="s">
+      <c r="C33" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="55" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A34" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A34" s="18">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51"/>
+      <c r="E34" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="44"/>
       <c r="N34" s="40"/>
       <c r="O34" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.15">
@@ -4654,22 +4693,22 @@
       <c r="B35" s="18"/>
       <c r="C35" s="40"/>
       <c r="D35" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
+        <v>32</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+      <c r="M35" s="44"/>
       <c r="N35" s="40"/>
       <c r="O35" s="42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.15">
@@ -4680,25 +4719,25 @@
       <c r="B36" s="18"/>
       <c r="C36" s="40"/>
       <c r="D36" s="40" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E36" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
+        <v>161</v>
+      </c>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="44"/>
+      <c r="L36" s="44"/>
+      <c r="M36" s="44"/>
       <c r="N36" s="40"/>
       <c r="O36" s="42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A37" s="18">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -4706,66 +4745,66 @@
       <c r="B37" s="18"/>
       <c r="C37" s="40"/>
       <c r="D37" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="40"/>
+      <c r="O37" s="42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A38" s="18">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="F37" s="51"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="51"/>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="40" t="s">
+      <c r="E38" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="O38" s="42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="41" t="s">
         <v>123</v>
-      </c>
-      <c r="O37" s="42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A38" s="18">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" s="40" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="18">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>125</v>
       </c>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -4777,10 +4816,10 @@
       <c r="M39" s="21"/>
       <c r="N39" s="40"/>
       <c r="O39" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="18">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4788,10 +4827,10 @@
       <c r="B40" s="19"/>
       <c r="C40" s="39"/>
       <c r="D40" s="40" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
@@ -4801,15 +4840,12 @@
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
-      <c r="N40" s="40" t="s">
-        <v>114</v>
-      </c>
+      <c r="N40" s="40"/>
       <c r="O40" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="P40" s="10"/>
-    </row>
-    <row r="41" spans="1:16" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A41" s="18">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4817,10 +4853,10 @@
       <c r="B41" s="19"/>
       <c r="C41" s="39"/>
       <c r="D41" s="40" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="E41" s="40" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -4831,10 +4867,10 @@
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
       <c r="N41" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O41" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P41" s="10"/>
     </row>
@@ -4846,10 +4882,10 @@
       <c r="B42" s="19"/>
       <c r="C42" s="39"/>
       <c r="D42" s="40" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="E42" s="40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
@@ -4860,14 +4896,14 @@
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
       <c r="N42" s="40" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="O42" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:16" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A43" s="18">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4875,10 +4911,10 @@
       <c r="B43" s="19"/>
       <c r="C43" s="39"/>
       <c r="D43" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>127</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -4888,37 +4924,38 @@
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
-      <c r="N43" s="40"/>
+      <c r="N43" s="40" t="s">
+        <v>121</v>
+      </c>
       <c r="O43" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+      <c r="P43" s="10"/>
+    </row>
+    <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="18">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="40" t="s">
-        <v>69</v>
-      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="40" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E44" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
+        <v>129</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
       <c r="N44" s="40"/>
       <c r="O44" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
@@ -4927,12 +4964,14 @@
         <v>41</v>
       </c>
       <c r="B45" s="18"/>
-      <c r="C45" s="40"/>
+      <c r="C45" s="40" t="s">
+        <v>69</v>
+      </c>
       <c r="D45" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F45" s="22"/>
       <c r="G45" s="22"/>
@@ -4944,23 +4983,21 @@
       <c r="M45" s="22"/>
       <c r="N45" s="40"/>
       <c r="O45" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="18">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B46" s="18"/>
-      <c r="C46" s="40" t="s">
-        <v>36</v>
-      </c>
+      <c r="C46" s="40"/>
       <c r="D46" s="40" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="E46" s="41" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="22"/>
@@ -4972,21 +5009,23 @@
       <c r="M46" s="22"/>
       <c r="N46" s="40"/>
       <c r="O46" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A47" s="18">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B47" s="18"/>
-      <c r="C47" s="40"/>
+      <c r="C47" s="40" t="s">
+        <v>36</v>
+      </c>
       <c r="D47" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>141</v>
+        <v>135</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>139</v>
       </c>
       <c r="F47" s="22"/>
       <c r="G47" s="22"/>
@@ -4998,10 +5037,10 @@
       <c r="M47" s="22"/>
       <c r="N47" s="40"/>
       <c r="O47" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" s="2" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A48" s="18">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -5009,10 +5048,10 @@
       <c r="B48" s="18"/>
       <c r="C48" s="40"/>
       <c r="D48" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>140</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
@@ -5024,18 +5063,21 @@
       <c r="M48" s="22"/>
       <c r="N48" s="40"/>
       <c r="O48" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="18"/>
+      <c r="A49" s="18">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
       <c r="B49" s="18"/>
       <c r="C49" s="40"/>
       <c r="D49" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E49" s="41" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F49" s="22"/>
       <c r="G49" s="22"/>
@@ -5047,21 +5089,18 @@
       <c r="M49" s="22"/>
       <c r="N49" s="40"/>
       <c r="O49" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A50" s="18">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="40"/>
       <c r="D50" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F50" s="22"/>
       <c r="G50" s="22"/>
@@ -5071,27 +5110,23 @@
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
-      <c r="N50" s="40" t="s">
-        <v>40</v>
-      </c>
+      <c r="N50" s="40"/>
       <c r="O50" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="18">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="B51" s="18"/>
-      <c r="C51" s="40" t="s">
-        <v>41</v>
-      </c>
+      <c r="C51" s="40"/>
       <c r="D51" s="40" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="E51" s="41" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F51" s="22"/>
       <c r="G51" s="22"/>
@@ -5101,20 +5136,27 @@
       <c r="K51" s="22"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
-      <c r="N51" s="40"/>
+      <c r="N51" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="O51" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="18"/>
+      <c r="A52" s="18">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
       <c r="B52" s="18"/>
-      <c r="C52" s="40"/>
+      <c r="C52" s="40" t="s">
+        <v>41</v>
+      </c>
       <c r="D52" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E52" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F52" s="22"/>
       <c r="G52" s="22"/>
@@ -5126,21 +5168,18 @@
       <c r="M52" s="22"/>
       <c r="N52" s="40"/>
       <c r="O52" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="18">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
+      <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="40"/>
       <c r="D53" s="40" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="E53" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
@@ -5152,7 +5191,7 @@
       <c r="M53" s="22"/>
       <c r="N53" s="40"/>
       <c r="O53" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -5163,10 +5202,10 @@
       <c r="B54" s="18"/>
       <c r="C54" s="40"/>
       <c r="D54" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E54" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F54" s="22"/>
       <c r="G54" s="22"/>
@@ -5178,7 +5217,7 @@
       <c r="M54" s="22"/>
       <c r="N54" s="40"/>
       <c r="O54" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -5189,10 +5228,10 @@
       <c r="B55" s="18"/>
       <c r="C55" s="40"/>
       <c r="D55" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E55" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
@@ -5204,7 +5243,7 @@
       <c r="M55" s="22"/>
       <c r="N55" s="40"/>
       <c r="O55" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -5213,12 +5252,12 @@
         <v>52</v>
       </c>
       <c r="B56" s="18"/>
-      <c r="C56" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40" t="s">
+        <v>44</v>
+      </c>
       <c r="E56" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F56" s="22"/>
       <c r="G56" s="22"/>
@@ -5230,23 +5269,21 @@
       <c r="M56" s="22"/>
       <c r="N56" s="40"/>
       <c r="O56" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="18">
-        <f t="shared" ref="A57:A85" si="1">ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="B57" s="18"/>
       <c r="C57" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D57" s="40" t="s">
-        <v>54</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D57" s="40"/>
       <c r="E57" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F57" s="22"/>
       <c r="G57" s="22"/>
@@ -5258,21 +5295,23 @@
       <c r="M57" s="22"/>
       <c r="N57" s="40"/>
       <c r="O57" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A58" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A58:A86" si="1">ROW()-4</f>
         <v>54</v>
       </c>
       <c r="B58" s="18"/>
-      <c r="C58" s="40"/>
+      <c r="C58" s="40" t="s">
+        <v>53</v>
+      </c>
       <c r="D58" s="40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
@@ -5284,7 +5323,7 @@
       <c r="M58" s="22"/>
       <c r="N58" s="40"/>
       <c r="O58" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -5295,10 +5334,10 @@
       <c r="B59" s="18"/>
       <c r="C59" s="40"/>
       <c r="D59" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E59" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
@@ -5310,7 +5349,7 @@
       <c r="M59" s="22"/>
       <c r="N59" s="40"/>
       <c r="O59" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -5321,10 +5360,10 @@
       <c r="B60" s="18"/>
       <c r="C60" s="40"/>
       <c r="D60" s="40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E60" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
@@ -5336,10 +5375,10 @@
       <c r="M60" s="22"/>
       <c r="N60" s="40"/>
       <c r="O60" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A61" s="18">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -5347,10 +5386,10 @@
       <c r="B61" s="18"/>
       <c r="C61" s="40"/>
       <c r="D61" s="40" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E61" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
@@ -5362,7 +5401,7 @@
       <c r="M61" s="22"/>
       <c r="N61" s="40"/>
       <c r="O61" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -5371,14 +5410,12 @@
         <v>58</v>
       </c>
       <c r="B62" s="18"/>
-      <c r="C62" s="40" t="s">
-        <v>77</v>
-      </c>
+      <c r="C62" s="40"/>
       <c r="D62" s="40" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="E62" s="41" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
@@ -5390,7 +5427,7 @@
       <c r="M62" s="22"/>
       <c r="N62" s="40"/>
       <c r="O62" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -5399,12 +5436,14 @@
         <v>59</v>
       </c>
       <c r="B63" s="18"/>
-      <c r="C63" s="40"/>
+      <c r="C63" s="40" t="s">
+        <v>77</v>
+      </c>
       <c r="D63" s="40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E63" s="41" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
@@ -5416,10 +5455,10 @@
       <c r="M63" s="22"/>
       <c r="N63" s="40"/>
       <c r="O63" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A64" s="18">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -5427,10 +5466,10 @@
       <c r="B64" s="18"/>
       <c r="C64" s="40"/>
       <c r="D64" s="40" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E64" s="41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
@@ -5442,23 +5481,21 @@
       <c r="M64" s="22"/>
       <c r="N64" s="40"/>
       <c r="O64" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A65" s="18">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B65" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D65" s="40"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="E65" s="41" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="F65" s="22"/>
       <c r="G65" s="22"/>
@@ -5470,7 +5507,7 @@
       <c r="M65" s="22"/>
       <c r="N65" s="40"/>
       <c r="O65" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -5478,10 +5515,16 @@
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="20"/>
+      <c r="B66" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" s="40"/>
+      <c r="E66" s="41" t="s">
+        <v>144</v>
+      </c>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
       <c r="H66" s="22"/>
@@ -5490,8 +5533,10 @@
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
       <c r="M66" s="22"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="37"/>
+      <c r="N66" s="40"/>
+      <c r="O66" s="42" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="67" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="18">
@@ -5873,8 +5918,28 @@
       <c r="N85" s="18"/>
       <c r="O85" s="37"/>
     </row>
+    <row r="86" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="18">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="20"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="37"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:P85" xr:uid="{2D48870B-6A90-4B61-874C-957C5B216DC2}"/>
+  <autoFilter ref="A4:P86" xr:uid="{2D48870B-6A90-4B61-874C-957C5B216DC2}"/>
   <mergeCells count="4">
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="F3:M3"/>
@@ -5954,20 +6019,20 @@
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="44" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="45" t="s">
         <v>11</v>
       </c>
     </row>
@@ -5982,7 +6047,7 @@
       <c r="D4" s="16">
         <v>3</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="17" t="s">
         <v>4</v>
       </c>
@@ -6007,7 +6072,7 @@
       <c r="M4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="44"/>
+      <c r="N4" s="45"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="18">
